--- a/ZZZ_extra-stuff/HeadReq.xlsx
+++ b/ZZZ_extra-stuff/HeadReq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aslaugsol/Documents/GitHub/LIKX2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/ZZZ_extra-stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C45986-1C48-494D-BC4D-5BB684017ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D290F14F-6B10-114E-9C2E-2CA30BF5498C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="780" windowWidth="30820" windowHeight="18440" xr2:uid="{40C17535-BF2D-524A-875A-9740EA95813D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{40C17535-BF2D-524A-875A-9740EA95813D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5D0741-C0C3-AB43-A4FA-D465E4BAB586}">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="111" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
